--- a/2020/cursos/informatica/Decimo grado/listado creacion usuarios base de datos.xlsx
+++ b/2020/cursos/informatica/Decimo grado/listado creacion usuarios base de datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\informatica\Decimo grado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895FD89F-7C01-4BA7-9D40-73381289707F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBFC731-29FC-4328-ACF3-DE80B705FBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{371D66BC-B699-43B4-A939-20DEE2A1A991}"/>
+    <workbookView xWindow="1860" yWindow="45" windowWidth="16440" windowHeight="13710" activeTab="3" xr2:uid="{371D66BC-B699-43B4-A939-20DEE2A1A991}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1537,15 +1537,15 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(1,G2-8)</f>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <f ca="1">H2+8</f>
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J2" t="str">
         <f ca="1">MID(F2,H2,6)</f>
-        <v>A94012</v>
+        <v>254BB4</v>
       </c>
       <c r="K2">
         <f ca="1">LEN(J2)</f>
@@ -1594,15 +1594,15 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" ca="1" si="3">RANDBETWEEN(1,G3-8)</f>
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" ca="1" si="4">H3+8</f>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J66" ca="1" si="5">MID(F3,H3,6)</f>
-        <v>030902</v>
+        <v>8747BC</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K66" ca="1" si="6">LEN(J3)</f>
@@ -1651,15 +1651,15 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0776D0</v>
+        <v>E40560</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="6"/>
@@ -1708,15 +1708,15 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0CA261</v>
+        <v>9B30D0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
@@ -1765,15 +1765,15 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>929A91</v>
+        <v>1442D1</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
@@ -1822,15 +1822,15 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>59B6B1</v>
+        <v>60B630</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
@@ -1879,15 +1879,15 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3A45D6</v>
+        <v>BA389A</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
@@ -1936,15 +1936,15 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F2BC0A</v>
+        <v>E090A4</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
@@ -1993,15 +1993,15 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>15424B</v>
+        <v>F322EC</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
@@ -2050,15 +2050,15 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F3A0C7</v>
+        <v>453F52</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
@@ -2107,15 +2107,15 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>82325F</v>
+        <v>9D5823</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
@@ -2164,15 +2164,15 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F4DDE6</v>
+        <v>56BF4D</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
@@ -2221,15 +2221,15 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A1278A</v>
+        <v>083B77</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
@@ -2278,15 +2278,15 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>FBC2A4</v>
+        <v>3985E4</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
@@ -2335,15 +2335,15 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>559B0B</v>
+        <v>8F325A</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
@@ -2392,15 +2392,15 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3B755D</v>
+        <v>254E0B</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
@@ -2449,15 +2449,15 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>914A6A</v>
+        <v>3FA37C</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
@@ -2506,15 +2506,15 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3D048F</v>
+        <v>A411E1</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
@@ -2563,15 +2563,15 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>51FAB3</v>
+        <v>563EEF</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
@@ -2620,15 +2620,15 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>02CBB4</v>
+        <v>BB4178</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
@@ -2677,15 +2677,15 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>14D2AD</v>
+        <v>A13CEF</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
@@ -2734,15 +2734,15 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>83746B</v>
+        <v>3746BD</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
@@ -2791,15 +2791,15 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>23FBE4</v>
+        <v>5373DD</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
@@ -2848,15 +2848,15 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>B865E2</v>
+        <v>27D06B</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
@@ -2905,15 +2905,15 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D77442</v>
+        <v>E71E87</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
@@ -2962,15 +2962,15 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>DB2F4C</v>
+        <v>B2F4C6</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
@@ -3019,15 +3019,15 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>62DA1D</v>
+        <v>8FACAA</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
@@ -3076,15 +3076,15 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>46A6BB</v>
+        <v>917380</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
@@ -3133,15 +3133,15 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>42FB5E</v>
+        <v>D353BE</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
@@ -3190,15 +3190,15 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>4C0697</v>
+        <v>AEA134</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
@@ -3247,15 +3247,15 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>11545D</v>
+        <v>C52E6C</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
@@ -3304,15 +3304,15 @@
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>089284</v>
+        <v>C8847F</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
@@ -3361,15 +3361,15 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0697DC</v>
+        <v>585E44</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
@@ -3418,15 +3418,15 @@
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>BCD23D</v>
+        <v>1EBF6B</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
@@ -3475,15 +3475,15 @@
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="4"/>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>A57E9B</v>
+        <v>86DDC0</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
@@ -3532,15 +3532,15 @@
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D0A82D</v>
+        <v>F55F26</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
@@ -3589,15 +3589,15 @@
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>8E2880</v>
+        <v>3D5C2D</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
@@ -3646,15 +3646,15 @@
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1C6CA7</v>
+        <v>C44E7C</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
@@ -3703,15 +3703,15 @@
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>D402D0</v>
+        <v>EA6871</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
@@ -3760,15 +3760,15 @@
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1B92FF</v>
+        <v>FB8A6D</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
@@ -3817,15 +3817,15 @@
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0757E1</v>
+        <v>42B3D5</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
@@ -3874,15 +3874,15 @@
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>5A809C</v>
+        <v>FA96F2</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
@@ -3931,15 +3931,15 @@
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1F0841</v>
+        <v>074D1F</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
@@ -3988,15 +3988,15 @@
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>09511C</v>
+        <v>24E51E</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
@@ -4045,15 +4045,15 @@
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>9B6CA9</v>
+        <v>7AFF3A</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
@@ -4102,15 +4102,15 @@
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3C1E71</v>
+        <v>4B0631</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
@@ -4159,15 +4159,15 @@
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>04B6ED</v>
+        <v>79AB4E</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
@@ -4216,15 +4216,15 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>389DBA</v>
+        <v>A6EB35</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
@@ -4273,15 +4273,15 @@
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="4"/>
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3854A8</v>
+        <v>47C106</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
@@ -4330,15 +4330,15 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>5A451D</v>
+        <v>585DFB</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
@@ -4387,15 +4387,15 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>35E584</v>
+        <v>5842A5</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
@@ -4444,15 +4444,15 @@
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>593EEB</v>
+        <v>7B5411</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
@@ -4501,15 +4501,15 @@
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>1BAE08</v>
+        <v>BA5CA5</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
@@ -4558,15 +4558,15 @@
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="4"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>03A2C3</v>
+        <v>318AF1</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
@@ -4615,15 +4615,15 @@
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>9EA5CB</v>
+        <v>EDE098</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
@@ -4672,15 +4672,15 @@
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>51E738</v>
+        <v>00FCFE</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
@@ -4729,15 +4729,15 @@
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>798EFF</v>
+        <v>D0F781</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
@@ -4786,15 +4786,15 @@
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>3AAAAF</v>
+        <v>8A5308</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
@@ -4843,15 +4843,15 @@
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>9A3C9D</v>
+        <v>9D9B1E</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
@@ -4900,15 +4900,15 @@
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>F3E9F2</v>
+        <v>2C486B</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
@@ -4957,15 +4957,15 @@
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="4"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>9BFCF5</v>
+        <v>BF2F32</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
@@ -5014,15 +5014,15 @@
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>E2B822</v>
+        <v>1C65E2</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
@@ -5071,15 +5071,15 @@
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>0C5269</v>
+        <v>4AFF22</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
@@ -5128,15 +5128,15 @@
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>2A3D36</v>
+        <v>3D3686</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
@@ -5185,15 +5185,15 @@
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I66">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>FC26CE</v>
+        <v>D0E9F0</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
@@ -5242,15 +5242,15 @@
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H99" ca="1" si="13">RANDBETWEEN(1,G67-8)</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I67">
         <f t="shared" ref="I67:I99" ca="1" si="14">H67+8</f>
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" ref="J67:J99" ca="1" si="15">MID(F67,H67,6)</f>
-        <v>62EB71</v>
+        <v>4A234E</v>
       </c>
       <c r="K67">
         <f t="shared" ref="K67:K99" ca="1" si="16">LEN(J67)</f>
@@ -5299,15 +5299,15 @@
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="14"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>C615CA</v>
+        <v>1DD8C6</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="16"/>
@@ -5356,15 +5356,15 @@
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="13"/>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="14"/>
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6C01CE</v>
+        <v>634506</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="16"/>
@@ -5413,15 +5413,15 @@
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="14"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>98D181</v>
+        <v>D1816E</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="16"/>
@@ -5470,15 +5470,15 @@
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>09D681</v>
+        <v>CD9BE4</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="16"/>
@@ -5527,15 +5527,15 @@
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="13"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BC2CC0</v>
+        <v>EEBC2C</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="16"/>
@@ -5584,15 +5584,15 @@
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="13"/>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="14"/>
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>0CB32E</v>
+        <v>06148F</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="16"/>
@@ -5641,15 +5641,15 @@
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="14"/>
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>37B4B7</v>
+        <v>5DDE4E</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="16"/>
@@ -5698,15 +5698,15 @@
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I75">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>F84B3D</v>
+        <v>7C2346</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="16"/>
@@ -5755,15 +5755,15 @@
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="13"/>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="14"/>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J76" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>193C35</v>
+        <v>C35BD9</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="16"/>
@@ -5812,15 +5812,15 @@
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="13"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="14"/>
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J77" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BE2FB1</v>
+        <v>E44347</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="16"/>
@@ -5869,15 +5869,15 @@
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J78" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>97D6F9</v>
+        <v>2A0445</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="16"/>
@@ -5926,15 +5926,15 @@
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="13"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="14"/>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>3577F4</v>
+        <v>AF4612</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="16"/>
@@ -5983,15 +5983,15 @@
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="13"/>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I80">
         <f t="shared" ca="1" si="14"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>0F9671</v>
+        <v>0CFFF0</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="16"/>
@@ -6040,15 +6040,15 @@
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="14"/>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>431FE7</v>
+        <v>937BF9</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="16"/>
@@ -6097,15 +6097,15 @@
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="14"/>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>E79E1D</v>
+        <v>2B90C7</v>
       </c>
       <c r="K82">
         <f t="shared" ca="1" si="16"/>
@@ -6154,15 +6154,15 @@
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="13"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="14"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>9A5BA7</v>
+        <v>425F6C</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="16"/>
@@ -6211,15 +6211,15 @@
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>9A849E</v>
+        <v>849ECF</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="16"/>
@@ -6268,15 +6268,15 @@
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>133CE7</v>
+        <v>9AF9EA</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="16"/>
@@ -6325,15 +6325,15 @@
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="13"/>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>3E457D</v>
+        <v>66989B</v>
       </c>
       <c r="K86">
         <f t="shared" ca="1" si="16"/>
@@ -6382,15 +6382,15 @@
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>595F39</v>
+        <v>91C4B9</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="16"/>
@@ -6439,15 +6439,15 @@
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>CCC713</v>
+        <v>B18407</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="16"/>
@@ -6496,15 +6496,15 @@
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="13"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6D0599</v>
+        <v>F81E73</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="16"/>
@@ -6553,15 +6553,15 @@
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="14"/>
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>F546E1</v>
+        <v>CA8AC3</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="16"/>
@@ -6610,15 +6610,15 @@
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="14"/>
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="J91" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>BEB83A</v>
+        <v>A96CF8</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="16"/>
@@ -6667,15 +6667,15 @@
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="J92" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>669509</v>
+        <v>FF30EC</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="16"/>
@@ -6724,15 +6724,15 @@
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="14"/>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J93" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>6DAE23</v>
+        <v>B686DA</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="16"/>
@@ -6781,15 +6781,15 @@
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>309A72</v>
+        <v>B54A5D</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="16"/>
@@ -6838,15 +6838,15 @@
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="14"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>FD2508</v>
+        <v>8BDDBE</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="16"/>
@@ -6895,15 +6895,15 @@
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="14"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>EAFF9B</v>
+        <v>BA1A76</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="16"/>
@@ -6952,15 +6952,15 @@
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="14"/>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>AC2C8A</v>
+        <v>F0BD4D</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="16"/>
@@ -7009,15 +7009,15 @@
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="14"/>
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>FEEF96</v>
+        <v>01B522</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="16"/>
@@ -7066,15 +7066,15 @@
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="13"/>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="14"/>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>689B9E</v>
+        <v>40689B</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="16"/>
@@ -9297,8 +9297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D86FB6-0A09-49AF-A20B-4783E5D7E12F}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9429,6 +9429,54 @@
       <c r="E3" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="F3" s="26" t="str">
+        <f t="shared" ref="F3:F66" si="0">"create database bd"&amp;A3&amp;" DEFAULT character set utf8mb4; 
+"</f>
+        <v xml:space="preserve">create database bd627 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G3" s="26" t="str">
+        <f t="shared" ref="G3:G66" si="1">"CREATE USER 'u"&amp;A3&amp;"'@'%';
+ALTER USER 'u"&amp;A3&amp;"'@'%'
+IDENTIFIED BY '"&amp;E3&amp;"' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u"&amp;A3&amp;"'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u"&amp;A3&amp;"'@'%';
+GRANT Select ON world_x.* TO 'u"&amp;A3&amp;"'@'%';
+FLUSH PRIVILEGES;"</f>
+        <v>CREATE USER 'u627'@'%';
+ALTER USER 'u627'@'%'
+IDENTIFIED BY '03C985' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u627'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u627'@'%';
+GRANT Select ON world_x.* TO 'u627'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f t="shared" ref="H3:H66" si="2">F3&amp;G3</f>
+        <v>create database bd627 DEFAULT character set utf8mb4; 
+CREATE USER 'u627'@'%';
+ALTER USER 'u627'@'%'
+IDENTIFIED BY '03C985' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u627'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u627'@'%';
+GRANT Select ON world_x.* TO 'u627'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -9447,6 +9495,42 @@
       <c r="E4" s="10" t="s">
         <v>159</v>
       </c>
+      <c r="F4" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd629 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G4" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u629'@'%';
+ALTER USER 'u629'@'%'
+IDENTIFIED BY 'CAA637' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u629'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u629'@'%';
+GRANT Select ON world_x.* TO 'u629'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H4" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd629 DEFAULT character set utf8mb4; 
+CREATE USER 'u629'@'%';
+ALTER USER 'u629'@'%'
+IDENTIFIED BY 'CAA637' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u629'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u629'@'%';
+GRANT Select ON world_x.* TO 'u629'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -9465,6 +9549,42 @@
       <c r="E5" s="10" t="s">
         <v>130</v>
       </c>
+      <c r="F5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd631 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u631'@'%';
+ALTER USER 'u631'@'%'
+IDENTIFIED BY 'BABFC8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u631'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u631'@'%';
+GRANT Select ON world_x.* TO 'u631'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H5" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd631 DEFAULT character set utf8mb4; 
+CREATE USER 'u631'@'%';
+ALTER USER 'u631'@'%'
+IDENTIFIED BY 'BABFC8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u631'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u631'@'%';
+GRANT Select ON world_x.* TO 'u631'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9483,6 +9603,42 @@
       <c r="E6" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="F6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd632 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G6" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u632'@'%';
+ALTER USER 'u632'@'%'
+IDENTIFIED BY '225BE6' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u632'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u632'@'%';
+GRANT Select ON world_x.* TO 'u632'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H6" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd632 DEFAULT character set utf8mb4; 
+CREATE USER 'u632'@'%';
+ALTER USER 'u632'@'%'
+IDENTIFIED BY '225BE6' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u632'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u632'@'%';
+GRANT Select ON world_x.* TO 'u632'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -9501,6 +9657,42 @@
       <c r="E7" s="10" t="s">
         <v>165</v>
       </c>
+      <c r="F7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd633 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G7" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u633'@'%';
+ALTER USER 'u633'@'%'
+IDENTIFIED BY '45C6AA' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u633'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u633'@'%';
+GRANT Select ON world_x.* TO 'u633'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H7" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd633 DEFAULT character set utf8mb4; 
+CREATE USER 'u633'@'%';
+ALTER USER 'u633'@'%'
+IDENTIFIED BY '45C6AA' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u633'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u633'@'%';
+GRANT Select ON world_x.* TO 'u633'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -9519,6 +9711,42 @@
       <c r="E8" s="10" t="s">
         <v>167</v>
       </c>
+      <c r="F8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd636 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u636'@'%';
+ALTER USER 'u636'@'%'
+IDENTIFIED BY '9E868A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u636'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u636'@'%';
+GRANT Select ON world_x.* TO 'u636'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H8" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd636 DEFAULT character set utf8mb4; 
+CREATE USER 'u636'@'%';
+ALTER USER 'u636'@'%'
+IDENTIFIED BY '9E868A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u636'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u636'@'%';
+GRANT Select ON world_x.* TO 'u636'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -9537,6 +9765,42 @@
       <c r="E9" s="10" t="s">
         <v>205</v>
       </c>
+      <c r="F9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd638 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u638'@'%';
+ALTER USER 'u638'@'%'
+IDENTIFIED BY 'C7626B' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u638'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u638'@'%';
+GRANT Select ON world_x.* TO 'u638'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd638 DEFAULT character set utf8mb4; 
+CREATE USER 'u638'@'%';
+ALTER USER 'u638'@'%'
+IDENTIFIED BY 'C7626B' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u638'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u638'@'%';
+GRANT Select ON world_x.* TO 'u638'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -9555,6 +9819,42 @@
       <c r="E10" s="10" t="s">
         <v>208</v>
       </c>
+      <c r="F10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd639 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u639'@'%';
+ALTER USER 'u639'@'%'
+IDENTIFIED BY '04BE3F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u639'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u639'@'%';
+GRANT Select ON world_x.* TO 'u639'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H10" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd639 DEFAULT character set utf8mb4; 
+CREATE USER 'u639'@'%';
+ALTER USER 'u639'@'%'
+IDENTIFIED BY '04BE3F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u639'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u639'@'%';
+GRANT Select ON world_x.* TO 'u639'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9573,6 +9873,42 @@
       <c r="E11" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="F11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd640 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u640'@'%';
+ALTER USER 'u640'@'%'
+IDENTIFIED BY '37D158' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u640'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u640'@'%';
+GRANT Select ON world_x.* TO 'u640'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H11" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd640 DEFAULT character set utf8mb4; 
+CREATE USER 'u640'@'%';
+ALTER USER 'u640'@'%'
+IDENTIFIED BY '37D158' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u640'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u640'@'%';
+GRANT Select ON world_x.* TO 'u640'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9591,6 +9927,42 @@
       <c r="E12" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="F12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd646 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u646'@'%';
+ALTER USER 'u646'@'%'
+IDENTIFIED BY 'F9F8BC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u646'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u646'@'%';
+GRANT Select ON world_x.* TO 'u646'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H12" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd646 DEFAULT character set utf8mb4; 
+CREATE USER 'u646'@'%';
+ALTER USER 'u646'@'%'
+IDENTIFIED BY 'F9F8BC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u646'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u646'@'%';
+GRANT Select ON world_x.* TO 'u646'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9609,6 +9981,42 @@
       <c r="E13" s="10" t="s">
         <v>115</v>
       </c>
+      <c r="F13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd648 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G13" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u648'@'%';
+ALTER USER 'u648'@'%'
+IDENTIFIED BY 'C09912' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u648'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u648'@'%';
+GRANT Select ON world_x.* TO 'u648'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H13" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd648 DEFAULT character set utf8mb4; 
+CREATE USER 'u648'@'%';
+ALTER USER 'u648'@'%'
+IDENTIFIED BY 'C09912' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u648'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u648'@'%';
+GRANT Select ON world_x.* TO 'u648'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K13" s="29"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9627,6 +10035,42 @@
       <c r="E14" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="F14" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd649 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G14" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u649'@'%';
+ALTER USER 'u649'@'%'
+IDENTIFIED BY 'D8C615' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u649'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u649'@'%';
+GRANT Select ON world_x.* TO 'u649'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H14" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd649 DEFAULT character set utf8mb4; 
+CREATE USER 'u649'@'%';
+ALTER USER 'u649'@'%'
+IDENTIFIED BY 'D8C615' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u649'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u649'@'%';
+GRANT Select ON world_x.* TO 'u649'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -9645,6 +10089,42 @@
       <c r="E15" s="10" t="s">
         <v>113</v>
       </c>
+      <c r="F15" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd650 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G15" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u650'@'%';
+ALTER USER 'u650'@'%'
+IDENTIFIED BY 'CB5714' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u650'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u650'@'%';
+GRANT Select ON world_x.* TO 'u650'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H15" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd650 DEFAULT character set utf8mb4; 
+CREATE USER 'u650'@'%';
+ALTER USER 'u650'@'%'
+IDENTIFIED BY 'CB5714' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u650'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u650'@'%';
+GRANT Select ON world_x.* TO 'u650'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9663,6 +10143,42 @@
       <c r="E16" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="F16" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd661 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G16" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u661'@'%';
+ALTER USER 'u661'@'%'
+IDENTIFIED BY 'A374D8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u661'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u661'@'%';
+GRANT Select ON world_x.* TO 'u661'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd661 DEFAULT character set utf8mb4; 
+CREATE USER 'u661'@'%';
+ALTER USER 'u661'@'%'
+IDENTIFIED BY 'A374D8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u661'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u661'@'%';
+GRANT Select ON world_x.* TO 'u661'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9681,6 +10197,42 @@
       <c r="E17" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="F17" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd663 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G17" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u663'@'%';
+ALTER USER 'u663'@'%'
+IDENTIFIED BY '3EEFBC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u663'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u663'@'%';
+GRANT Select ON world_x.* TO 'u663'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H17" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd663 DEFAULT character set utf8mb4; 
+CREATE USER 'u663'@'%';
+ALTER USER 'u663'@'%'
+IDENTIFIED BY '3EEFBC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u663'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u663'@'%';
+GRANT Select ON world_x.* TO 'u663'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9699,6 +10251,42 @@
       <c r="E18" s="10" t="s">
         <v>177</v>
       </c>
+      <c r="F18" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd668 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G18" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u668'@'%';
+ALTER USER 'u668'@'%'
+IDENTIFIED BY 'A82C10' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u668'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u668'@'%';
+GRANT Select ON world_x.* TO 'u668'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd668 DEFAULT character set utf8mb4; 
+CREATE USER 'u668'@'%';
+ALTER USER 'u668'@'%'
+IDENTIFIED BY 'A82C10' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u668'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u668'@'%';
+GRANT Select ON world_x.* TO 'u668'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -9717,6 +10305,42 @@
       <c r="E19" s="10" t="s">
         <v>146</v>
       </c>
+      <c r="F19" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd669 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G19" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u669'@'%';
+ALTER USER 'u669'@'%'
+IDENTIFIED BY '585E44' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u669'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u669'@'%';
+GRANT Select ON world_x.* TO 'u669'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H19" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd669 DEFAULT character set utf8mb4; 
+CREATE USER 'u669'@'%';
+ALTER USER 'u669'@'%'
+IDENTIFIED BY '585E44' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u669'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u669'@'%';
+GRANT Select ON world_x.* TO 'u669'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9735,6 +10359,42 @@
       <c r="E20" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="F20" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd673 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G20" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u673'@'%';
+ALTER USER 'u673'@'%'
+IDENTIFIED BY '597E40' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u673'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u673'@'%';
+GRANT Select ON world_x.* TO 'u673'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H20" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd673 DEFAULT character set utf8mb4; 
+CREATE USER 'u673'@'%';
+ALTER USER 'u673'@'%'
+IDENTIFIED BY '597E40' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u673'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u673'@'%';
+GRANT Select ON world_x.* TO 'u673'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K20" s="29"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -9753,6 +10413,42 @@
       <c r="E21" s="10" t="s">
         <v>181</v>
       </c>
+      <c r="F21" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd675 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G21" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u675'@'%';
+ALTER USER 'u675'@'%'
+IDENTIFIED BY 'E52CDE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u675'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u675'@'%';
+GRANT Select ON world_x.* TO 'u675'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H21" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd675 DEFAULT character set utf8mb4; 
+CREATE USER 'u675'@'%';
+ALTER USER 'u675'@'%'
+IDENTIFIED BY 'E52CDE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u675'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u675'@'%';
+GRANT Select ON world_x.* TO 'u675'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9771,6 +10467,42 @@
       <c r="E22" s="10" t="s">
         <v>123</v>
       </c>
+      <c r="F22" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd682 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G22" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u682'@'%';
+ALTER USER 'u682'@'%'
+IDENTIFIED BY 'E2C382' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u682'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u682'@'%';
+GRANT Select ON world_x.* TO 'u682'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H22" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd682 DEFAULT character set utf8mb4; 
+CREATE USER 'u682'@'%';
+ALTER USER 'u682'@'%'
+IDENTIFIED BY 'E2C382' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u682'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u682'@'%';
+GRANT Select ON world_x.* TO 'u682'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -9789,6 +10521,42 @@
       <c r="E23" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="F23" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd686 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G23" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u686'@'%';
+ALTER USER 'u686'@'%'
+IDENTIFIED BY '66F48A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u686'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u686'@'%';
+GRANT Select ON world_x.* TO 'u686'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H23" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd686 DEFAULT character set utf8mb4; 
+CREATE USER 'u686'@'%';
+ALTER USER 'u686'@'%'
+IDENTIFIED BY '66F48A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u686'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u686'@'%';
+GRANT Select ON world_x.* TO 'u686'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9807,6 +10575,42 @@
       <c r="E24" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="F24" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd688 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G24" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u688'@'%';
+ALTER USER 'u688'@'%'
+IDENTIFIED BY 'E98A13' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u688'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u688'@'%';
+GRANT Select ON world_x.* TO 'u688'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H24" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd688 DEFAULT character set utf8mb4; 
+CREATE USER 'u688'@'%';
+ALTER USER 'u688'@'%'
+IDENTIFIED BY 'E98A13' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u688'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u688'@'%';
+GRANT Select ON world_x.* TO 'u688'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -9825,6 +10629,42 @@
       <c r="E25" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="F25" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd696 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G25" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u696'@'%';
+ALTER USER 'u696'@'%'
+IDENTIFIED BY '3E28A8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u696'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u696'@'%';
+GRANT Select ON world_x.* TO 'u696'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H25" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd696 DEFAULT character set utf8mb4; 
+CREATE USER 'u696'@'%';
+ALTER USER 'u696'@'%'
+IDENTIFIED BY '3E28A8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u696'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u696'@'%';
+GRANT Select ON world_x.* TO 'u696'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9843,6 +10683,42 @@
       <c r="E26" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="F26" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd698 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G26" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u698'@'%';
+ALTER USER 'u698'@'%'
+IDENTIFIED BY 'D557BE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u698'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u698'@'%';
+GRANT Select ON world_x.* TO 'u698'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H26" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd698 DEFAULT character set utf8mb4; 
+CREATE USER 'u698'@'%';
+ALTER USER 'u698'@'%'
+IDENTIFIED BY 'D557BE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u698'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u698'@'%';
+GRANT Select ON world_x.* TO 'u698'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -9861,6 +10737,42 @@
       <c r="E27" s="10" t="s">
         <v>198</v>
       </c>
+      <c r="F27" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd710 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G27" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u710'@'%';
+ALTER USER 'u710'@'%'
+IDENTIFIED BY 'AA18A0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u710'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u710'@'%';
+GRANT Select ON world_x.* TO 'u710'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H27" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd710 DEFAULT character set utf8mb4; 
+CREATE USER 'u710'@'%';
+ALTER USER 'u710'@'%'
+IDENTIFIED BY 'AA18A0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u710'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u710'@'%';
+GRANT Select ON world_x.* TO 'u710'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -9879,6 +10791,42 @@
       <c r="E28" s="10" t="s">
         <v>201</v>
       </c>
+      <c r="F28" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd713 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G28" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u713'@'%';
+ALTER USER 'u713'@'%'
+IDENTIFIED BY 'AC3278' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u713'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u713'@'%';
+GRANT Select ON world_x.* TO 'u713'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H28" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd713 DEFAULT character set utf8mb4; 
+CREATE USER 'u713'@'%';
+ALTER USER 'u713'@'%'
+IDENTIFIED BY 'AC3278' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u713'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u713'@'%';
+GRANT Select ON world_x.* TO 'u713'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -9897,6 +10845,42 @@
       <c r="E29" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="F29" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd716 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G29" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u716'@'%';
+ALTER USER 'u716'@'%'
+IDENTIFIED BY '3CA640' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u716'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u716'@'%';
+GRANT Select ON world_x.* TO 'u716'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H29" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd716 DEFAULT character set utf8mb4; 
+CREATE USER 'u716'@'%';
+ALTER USER 'u716'@'%'
+IDENTIFIED BY '3CA640' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u716'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u716'@'%';
+GRANT Select ON world_x.* TO 'u716'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K29" s="29"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -9915,6 +10899,42 @@
       <c r="E30" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="F30" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd727 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G30" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u727'@'%';
+ALTER USER 'u727'@'%'
+IDENTIFIED BY 'D49B05' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u727'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u727'@'%';
+GRANT Select ON world_x.* TO 'u727'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H30" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd727 DEFAULT character set utf8mb4; 
+CREATE USER 'u727'@'%';
+ALTER USER 'u727'@'%'
+IDENTIFIED BY 'D49B05' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u727'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u727'@'%';
+GRANT Select ON world_x.* TO 'u727'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K30" s="29"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -9933,6 +10953,42 @@
       <c r="E31" s="10" t="s">
         <v>192</v>
       </c>
+      <c r="F31" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd738 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G31" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u738'@'%';
+ALTER USER 'u738'@'%'
+IDENTIFIED BY '54EC94' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u738'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u738'@'%';
+GRANT Select ON world_x.* TO 'u738'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H31" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd738 DEFAULT character set utf8mb4; 
+CREATE USER 'u738'@'%';
+ALTER USER 'u738'@'%'
+IDENTIFIED BY '54EC94' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u738'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u738'@'%';
+GRANT Select ON world_x.* TO 'u738'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K31" s="29"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -9951,6 +11007,42 @@
       <c r="E32" s="10" t="s">
         <v>133</v>
       </c>
+      <c r="F32" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd745 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G32" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u745'@'%';
+ALTER USER 'u745'@'%'
+IDENTIFIED BY '7CF63F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u745'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u745'@'%';
+GRANT Select ON world_x.* TO 'u745'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H32" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd745 DEFAULT character set utf8mb4; 
+CREATE USER 'u745'@'%';
+ALTER USER 'u745'@'%'
+IDENTIFIED BY '7CF63F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u745'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u745'@'%';
+GRANT Select ON world_x.* TO 'u745'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -9969,6 +11061,42 @@
       <c r="E33" s="10" t="s">
         <v>122</v>
       </c>
+      <c r="F33" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd770 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G33" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u770'@'%';
+ALTER USER 'u770'@'%'
+IDENTIFIED BY '7F322E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u770'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u770'@'%';
+GRANT Select ON world_x.* TO 'u770'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd770 DEFAULT character set utf8mb4; 
+CREATE USER 'u770'@'%';
+ALTER USER 'u770'@'%'
+IDENTIFIED BY '7F322E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u770'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u770'@'%';
+GRANT Select ON world_x.* TO 'u770'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K33" s="29"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -9987,6 +11115,42 @@
       <c r="E34" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd803 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G34" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u803'@'%';
+ALTER USER 'u803'@'%'
+IDENTIFIED BY 'B79BF8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u803'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u803'@'%';
+GRANT Select ON world_x.* TO 'u803'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H34" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd803 DEFAULT character set utf8mb4; 
+CREATE USER 'u803'@'%';
+ALTER USER 'u803'@'%'
+IDENTIFIED BY 'B79BF8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u803'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u803'@'%';
+GRANT Select ON world_x.* TO 'u803'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K34" s="29"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -10005,6 +11169,42 @@
       <c r="E35" s="10" t="s">
         <v>189</v>
       </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd807 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u807'@'%';
+ALTER USER 'u807'@'%'
+IDENTIFIED BY '6F93F4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u807'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u807'@'%';
+GRANT Select ON world_x.* TO 'u807'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd807 DEFAULT character set utf8mb4; 
+CREATE USER 'u807'@'%';
+ALTER USER 'u807'@'%'
+IDENTIFIED BY '6F93F4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u807'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u807'@'%';
+GRANT Select ON world_x.* TO 'u807'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K35" s="29"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -10023,6 +11223,42 @@
       <c r="E36" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd871 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u871'@'%';
+ALTER USER 'u871'@'%'
+IDENTIFIED BY 'C87DB5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u871'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u871'@'%';
+GRANT Select ON world_x.* TO 'u871'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H36" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd871 DEFAULT character set utf8mb4; 
+CREATE USER 'u871'@'%';
+ALTER USER 'u871'@'%'
+IDENTIFIED BY 'C87DB5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u871'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u871'@'%';
+GRANT Select ON world_x.* TO 'u871'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K36" s="29"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -10041,6 +11277,42 @@
       <c r="E37" s="10" t="s">
         <v>118</v>
       </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd907 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G37" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u907'@'%';
+ALTER USER 'u907'@'%'
+IDENTIFIED BY '32F402' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u907'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u907'@'%';
+GRANT Select ON world_x.* TO 'u907'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H37" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd907 DEFAULT character set utf8mb4; 
+CREATE USER 'u907'@'%';
+ALTER USER 'u907'@'%'
+IDENTIFIED BY '32F402' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u907'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u907'@'%';
+GRANT Select ON world_x.* TO 'u907'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K37" s="29"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -10059,6 +11331,42 @@
       <c r="E38" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="F38" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd918 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G38" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u918'@'%';
+ALTER USER 'u918'@'%'
+IDENTIFIED BY '6EB350' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u918'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u918'@'%';
+GRANT Select ON world_x.* TO 'u918'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H38" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd918 DEFAULT character set utf8mb4; 
+CREATE USER 'u918'@'%';
+ALTER USER 'u918'@'%'
+IDENTIFIED BY '6EB350' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u918'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u918'@'%';
+GRANT Select ON world_x.* TO 'u918'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K38" s="29"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -10077,6 +11385,42 @@
       <c r="E39" s="10" t="s">
         <v>121</v>
       </c>
+      <c r="F39" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1130 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G39" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1130'@'%';
+ALTER USER 'u1130'@'%'
+IDENTIFIED BY 'FACB23' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1130'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1130'@'%';
+GRANT Select ON world_x.* TO 'u1130'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H39" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1130 DEFAULT character set utf8mb4; 
+CREATE USER 'u1130'@'%';
+ALTER USER 'u1130'@'%'
+IDENTIFIED BY 'FACB23' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1130'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1130'@'%';
+GRANT Select ON world_x.* TO 'u1130'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K39" s="29"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -10095,6 +11439,42 @@
       <c r="E40" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="F40" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1379 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G40" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1379'@'%';
+ALTER USER 'u1379'@'%'
+IDENTIFIED BY 'D33646' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1379'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1379'@'%';
+GRANT Select ON world_x.* TO 'u1379'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H40" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1379 DEFAULT character set utf8mb4; 
+CREATE USER 'u1379'@'%';
+ALTER USER 'u1379'@'%'
+IDENTIFIED BY 'D33646' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1379'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1379'@'%';
+GRANT Select ON world_x.* TO 'u1379'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -10113,6 +11493,42 @@
       <c r="E41" s="10" t="s">
         <v>185</v>
       </c>
+      <c r="F41" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1390 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G41" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1390'@'%';
+ALTER USER 'u1390'@'%'
+IDENTIFIED BY '07C74C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1390'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1390'@'%';
+GRANT Select ON world_x.* TO 'u1390'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H41" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1390 DEFAULT character set utf8mb4; 
+CREATE USER 'u1390'@'%';
+ALTER USER 'u1390'@'%'
+IDENTIFIED BY '07C74C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1390'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1390'@'%';
+GRANT Select ON world_x.* TO 'u1390'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -10131,6 +11547,42 @@
       <c r="E42" s="10" t="s">
         <v>187</v>
       </c>
+      <c r="F42" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1400 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G42" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1400'@'%';
+ALTER USER 'u1400'@'%'
+IDENTIFIED BY 'ABCC4C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1400'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1400'@'%';
+GRANT Select ON world_x.* TO 'u1400'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H42" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1400 DEFAULT character set utf8mb4; 
+CREATE USER 'u1400'@'%';
+ALTER USER 'u1400'@'%'
+IDENTIFIED BY 'ABCC4C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1400'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1400'@'%';
+GRANT Select ON world_x.* TO 'u1400'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K42" s="29"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -10149,6 +11601,42 @@
       <c r="E43" s="10" t="s">
         <v>140</v>
       </c>
+      <c r="F43" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1409 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G43" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1409'@'%';
+ALTER USER 'u1409'@'%'
+IDENTIFIED BY '0215F5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1409'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1409'@'%';
+GRANT Select ON world_x.* TO 'u1409'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H43" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1409 DEFAULT character set utf8mb4; 
+CREATE USER 'u1409'@'%';
+ALTER USER 'u1409'@'%'
+IDENTIFIED BY '0215F5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1409'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1409'@'%';
+GRANT Select ON world_x.* TO 'u1409'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K43" s="29"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -10167,6 +11655,42 @@
       <c r="E44" s="10" t="s">
         <v>176</v>
       </c>
+      <c r="F44" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1410 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G44" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1410'@'%';
+ALTER USER 'u1410'@'%'
+IDENTIFIED BY '9A162F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1410'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1410'@'%';
+GRANT Select ON world_x.* TO 'u1410'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H44" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1410 DEFAULT character set utf8mb4; 
+CREATE USER 'u1410'@'%';
+ALTER USER 'u1410'@'%'
+IDENTIFIED BY '9A162F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1410'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1410'@'%';
+GRANT Select ON world_x.* TO 'u1410'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K44" s="29"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -10185,6 +11709,42 @@
       <c r="E45" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="F45" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1416 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G45" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1416'@'%';
+ALTER USER 'u1416'@'%'
+IDENTIFIED BY '79E7C2' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1416'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1416'@'%';
+GRANT Select ON world_x.* TO 'u1416'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H45" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1416 DEFAULT character set utf8mb4; 
+CREATE USER 'u1416'@'%';
+ALTER USER 'u1416'@'%'
+IDENTIFIED BY '79E7C2' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1416'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1416'@'%';
+GRANT Select ON world_x.* TO 'u1416'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K45" s="29"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -10203,6 +11763,42 @@
       <c r="E46" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="F46" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1419 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G46" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1419'@'%';
+ALTER USER 'u1419'@'%'
+IDENTIFIED BY 'A82DE8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1419'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1419'@'%';
+GRANT Select ON world_x.* TO 'u1419'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H46" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1419 DEFAULT character set utf8mb4; 
+CREATE USER 'u1419'@'%';
+ALTER USER 'u1419'@'%'
+IDENTIFIED BY 'A82DE8' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1419'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1419'@'%';
+GRANT Select ON world_x.* TO 'u1419'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K46" s="29"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -10221,6 +11817,42 @@
       <c r="E47" s="10" t="s">
         <v>194</v>
       </c>
+      <c r="F47" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1420 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G47" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1420'@'%';
+ALTER USER 'u1420'@'%'
+IDENTIFIED BY 'AFE912' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1420'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1420'@'%';
+GRANT Select ON world_x.* TO 'u1420'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H47" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1420 DEFAULT character set utf8mb4; 
+CREATE USER 'u1420'@'%';
+ALTER USER 'u1420'@'%'
+IDENTIFIED BY 'AFE912' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1420'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1420'@'%';
+GRANT Select ON world_x.* TO 'u1420'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K47" s="29"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -10239,6 +11871,42 @@
       <c r="E48" s="10" t="s">
         <v>206</v>
       </c>
+      <c r="F48" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1423 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G48" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1423'@'%';
+ALTER USER 'u1423'@'%'
+IDENTIFIED BY 'F659CC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1423'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1423'@'%';
+GRANT Select ON world_x.* TO 'u1423'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H48" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1423 DEFAULT character set utf8mb4; 
+CREATE USER 'u1423'@'%';
+ALTER USER 'u1423'@'%'
+IDENTIFIED BY 'F659CC' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1423'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1423'@'%';
+GRANT Select ON world_x.* TO 'u1423'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -10257,6 +11925,42 @@
       <c r="E49" s="10" t="s">
         <v>196</v>
       </c>
+      <c r="F49" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1433 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G49" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1433'@'%';
+ALTER USER 'u1433'@'%'
+IDENTIFIED BY '75037F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1433'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1433'@'%';
+GRANT Select ON world_x.* TO 'u1433'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H49" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1433 DEFAULT character set utf8mb4; 
+CREATE USER 'u1433'@'%';
+ALTER USER 'u1433'@'%'
+IDENTIFIED BY '75037F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1433'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1433'@'%';
+GRANT Select ON world_x.* TO 'u1433'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K49" s="29"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -10275,6 +11979,42 @@
       <c r="E50" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="F50" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1434 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G50" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1434'@'%';
+ALTER USER 'u1434'@'%'
+IDENTIFIED BY 'E5842A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1434'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1434'@'%';
+GRANT Select ON world_x.* TO 'u1434'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H50" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1434 DEFAULT character set utf8mb4; 
+CREATE USER 'u1434'@'%';
+ALTER USER 'u1434'@'%'
+IDENTIFIED BY 'E5842A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1434'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1434'@'%';
+GRANT Select ON world_x.* TO 'u1434'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -10293,6 +12033,42 @@
       <c r="E51" s="10" t="s">
         <v>207</v>
       </c>
+      <c r="F51" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1436 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G51" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1436'@'%';
+ALTER USER 'u1436'@'%'
+IDENTIFIED BY 'FF9BE7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1436'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1436'@'%';
+GRANT Select ON world_x.* TO 'u1436'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H51" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1436 DEFAULT character set utf8mb4; 
+CREATE USER 'u1436'@'%';
+ALTER USER 'u1436'@'%'
+IDENTIFIED BY 'FF9BE7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1436'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1436'@'%';
+GRANT Select ON world_x.* TO 'u1436'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -10311,6 +12087,42 @@
       <c r="E52" s="10" t="s">
         <v>193</v>
       </c>
+      <c r="F52" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd1763 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G52" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u1763'@'%';
+ALTER USER 'u1763'@'%'
+IDENTIFIED BY '297EFD' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1763'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1763'@'%';
+GRANT Select ON world_x.* TO 'u1763'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H52" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd1763 DEFAULT character set utf8mb4; 
+CREATE USER 'u1763'@'%';
+ALTER USER 'u1763'@'%'
+IDENTIFIED BY '297EFD' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u1763'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u1763'@'%';
+GRANT Select ON world_x.* TO 'u1763'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K52" s="29"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -10329,6 +12141,42 @@
       <c r="E53" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="F53" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2000 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G53" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2000'@'%';
+ALTER USER 'u2000'@'%'
+IDENTIFIED BY 'CDD694' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2000'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2000'@'%';
+GRANT Select ON world_x.* TO 'u2000'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H53" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2000 DEFAULT character set utf8mb4; 
+CREATE USER 'u2000'@'%';
+ALTER USER 'u2000'@'%'
+IDENTIFIED BY 'CDD694' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2000'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2000'@'%';
+GRANT Select ON world_x.* TO 'u2000'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K53" s="29"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -10347,6 +12195,42 @@
       <c r="E54" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="F54" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2011 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G54" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2011'@'%';
+ALTER USER 'u2011'@'%'
+IDENTIFIED BY '2711A4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2011'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2011'@'%';
+GRANT Select ON world_x.* TO 'u2011'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H54" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2011 DEFAULT character set utf8mb4; 
+CREATE USER 'u2011'@'%';
+ALTER USER 'u2011'@'%'
+IDENTIFIED BY '2711A4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2011'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2011'@'%';
+GRANT Select ON world_x.* TO 'u2011'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -10365,6 +12249,42 @@
       <c r="E55" s="10" t="s">
         <v>197</v>
       </c>
+      <c r="F55" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2015 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G55" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2015'@'%';
+ALTER USER 'u2015'@'%'
+IDENTIFIED BY 'FA1FB9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2015'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2015'@'%';
+GRANT Select ON world_x.* TO 'u2015'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H55" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2015 DEFAULT character set utf8mb4; 
+CREATE USER 'u2015'@'%';
+ALTER USER 'u2015'@'%'
+IDENTIFIED BY 'FA1FB9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2015'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2015'@'%';
+GRANT Select ON world_x.* TO 'u2015'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K55" s="29"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -10383,6 +12303,42 @@
       <c r="E56" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="F56" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2072 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G56" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2072'@'%';
+ALTER USER 'u2072'@'%'
+IDENTIFIED BY '292C52' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2072'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2072'@'%';
+GRANT Select ON world_x.* TO 'u2072'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H56" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2072 DEFAULT character set utf8mb4; 
+CREATE USER 'u2072'@'%';
+ALTER USER 'u2072'@'%'
+IDENTIFIED BY '292C52' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2072'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2072'@'%';
+GRANT Select ON world_x.* TO 'u2072'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K56" s="29"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -10401,6 +12357,42 @@
       <c r="E57" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="F57" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2094 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G57" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2094'@'%';
+ALTER USER 'u2094'@'%'
+IDENTIFIED BY 'A87AE9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2094'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2094'@'%';
+GRANT Select ON world_x.* TO 'u2094'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H57" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2094 DEFAULT character set utf8mb4; 
+CREATE USER 'u2094'@'%';
+ALTER USER 'u2094'@'%'
+IDENTIFIED BY 'A87AE9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2094'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2094'@'%';
+GRANT Select ON world_x.* TO 'u2094'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K57" s="29"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -10419,6 +12411,42 @@
       <c r="E58" s="10" t="s">
         <v>195</v>
       </c>
+      <c r="F58" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2310 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G58" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2310'@'%';
+ALTER USER 'u2310'@'%'
+IDENTIFIED BY '5067A9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2310'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2310'@'%';
+GRANT Select ON world_x.* TO 'u2310'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H58" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2310 DEFAULT character set utf8mb4; 
+CREATE USER 'u2310'@'%';
+ALTER USER 'u2310'@'%'
+IDENTIFIED BY '5067A9' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2310'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2310'@'%';
+GRANT Select ON world_x.* TO 'u2310'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K58" s="29"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -10437,6 +12465,42 @@
       <c r="E59" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="F59" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2335 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G59" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2335'@'%';
+ALTER USER 'u2335'@'%'
+IDENTIFIED BY '276889' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2335'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2335'@'%';
+GRANT Select ON world_x.* TO 'u2335'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H59" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2335 DEFAULT character set utf8mb4; 
+CREATE USER 'u2335'@'%';
+ALTER USER 'u2335'@'%'
+IDENTIFIED BY '276889' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2335'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2335'@'%';
+GRANT Select ON world_x.* TO 'u2335'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K59" s="29"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -10455,6 +12519,42 @@
       <c r="E60" s="10" t="s">
         <v>155</v>
       </c>
+      <c r="F60" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2338 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G60" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2338'@'%';
+ALTER USER 'u2338'@'%'
+IDENTIFIED BY '2473F7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2338'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2338'@'%';
+GRANT Select ON world_x.* TO 'u2338'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H60" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2338 DEFAULT character set utf8mb4; 
+CREATE USER 'u2338'@'%';
+ALTER USER 'u2338'@'%'
+IDENTIFIED BY '2473F7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2338'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2338'@'%';
+GRANT Select ON world_x.* TO 'u2338'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K60" s="29"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -10473,6 +12573,42 @@
       <c r="E61" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="F61" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2352 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G61" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2352'@'%';
+ALTER USER 'u2352'@'%'
+IDENTIFIED BY '0F9671' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2352'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2352'@'%';
+GRANT Select ON world_x.* TO 'u2352'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H61" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2352 DEFAULT character set utf8mb4; 
+CREATE USER 'u2352'@'%';
+ALTER USER 'u2352'@'%'
+IDENTIFIED BY '0F9671' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2352'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2352'@'%';
+GRANT Select ON world_x.* TO 'u2352'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K61" s="29"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -10491,6 +12627,42 @@
       <c r="E62" s="10" t="s">
         <v>178</v>
       </c>
+      <c r="F62" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2737 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G62" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2737'@'%';
+ALTER USER 'u2737'@'%'
+IDENTIFIED BY '5A2BD0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2737'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2737'@'%';
+GRANT Select ON world_x.* TO 'u2737'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H62" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2737 DEFAULT character set utf8mb4; 
+CREATE USER 'u2737'@'%';
+ALTER USER 'u2737'@'%'
+IDENTIFIED BY '5A2BD0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2737'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2737'@'%';
+GRANT Select ON world_x.* TO 'u2737'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K62" s="29"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -10509,6 +12681,42 @@
       <c r="E63" s="10" t="s">
         <v>202</v>
       </c>
+      <c r="F63" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2808 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G63" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2808'@'%';
+ALTER USER 'u2808'@'%'
+IDENTIFIED BY '40318E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2808'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2808'@'%';
+GRANT Select ON world_x.* TO 'u2808'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H63" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2808 DEFAULT character set utf8mb4; 
+CREATE USER 'u2808'@'%';
+ALTER USER 'u2808'@'%'
+IDENTIFIED BY '40318E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2808'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2808'@'%';
+GRANT Select ON world_x.* TO 'u2808'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K63" s="29"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -10527,6 +12735,42 @@
       <c r="E64" s="10" t="s">
         <v>188</v>
       </c>
+      <c r="F64" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2831 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G64" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2831'@'%';
+ALTER USER 'u2831'@'%'
+IDENTIFIED BY 'A37478' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2831'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2831'@'%';
+GRANT Select ON world_x.* TO 'u2831'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H64" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2831 DEFAULT character set utf8mb4; 
+CREATE USER 'u2831'@'%';
+ALTER USER 'u2831'@'%'
+IDENTIFIED BY 'A37478' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2831'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2831'@'%';
+GRANT Select ON world_x.* TO 'u2831'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K64" s="29"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -10545,6 +12789,42 @@
       <c r="E65" s="10" t="s">
         <v>209</v>
       </c>
+      <c r="F65" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2835 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G65" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2835'@'%';
+ALTER USER 'u2835'@'%'
+IDENTIFIED BY '70D1E6' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2835'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2835'@'%';
+GRANT Select ON world_x.* TO 'u2835'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H65" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2835 DEFAULT character set utf8mb4; 
+CREATE USER 'u2835'@'%';
+ALTER USER 'u2835'@'%'
+IDENTIFIED BY '70D1E6' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2835'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2835'@'%';
+GRANT Select ON world_x.* TO 'u2835'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K65" s="29"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -10563,6 +12843,42 @@
       <c r="E66" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="F66" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">create database bd2836 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G66" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>CREATE USER 'u2836'@'%';
+ALTER USER 'u2836'@'%'
+IDENTIFIED BY 'C7E336' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2836'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2836'@'%';
+GRANT Select ON world_x.* TO 'u2836'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H66" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>create database bd2836 DEFAULT character set utf8mb4; 
+CREATE USER 'u2836'@'%';
+ALTER USER 'u2836'@'%'
+IDENTIFIED BY 'C7E336' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2836'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2836'@'%';
+GRANT Select ON world_x.* TO 'u2836'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K66" s="29"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -10581,6 +12897,54 @@
       <c r="E67" s="10" t="s">
         <v>135</v>
       </c>
+      <c r="F67" s="26" t="str">
+        <f t="shared" ref="F67:F99" si="3">"create database bd"&amp;A67&amp;" DEFAULT character set utf8mb4; 
+"</f>
+        <v xml:space="preserve">create database bd2966 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G67" s="26" t="str">
+        <f t="shared" ref="G67:G99" si="4">"CREATE USER 'u"&amp;A67&amp;"'@'%';
+ALTER USER 'u"&amp;A67&amp;"'@'%'
+IDENTIFIED BY '"&amp;E67&amp;"' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u"&amp;A67&amp;"'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u"&amp;A67&amp;"'@'%';
+GRANT Select ON world_x.* TO 'u"&amp;A67&amp;"'@'%';
+FLUSH PRIVILEGES;"</f>
+        <v>CREATE USER 'u2966'@'%';
+ALTER USER 'u2966'@'%'
+IDENTIFIED BY 'D2D22E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2966'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2966'@'%';
+GRANT Select ON world_x.* TO 'u2966'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H67" s="31" t="str">
+        <f t="shared" ref="H67:H99" si="5">F67&amp;G67</f>
+        <v>create database bd2966 DEFAULT character set utf8mb4; 
+CREATE USER 'u2966'@'%';
+ALTER USER 'u2966'@'%'
+IDENTIFIED BY 'D2D22E' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2966'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2966'@'%';
+GRANT Select ON world_x.* TO 'u2966'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K67" s="29"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -10599,6 +12963,42 @@
       <c r="E68" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="F68" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd2997 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G68" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u2997'@'%';
+ALTER USER 'u2997'@'%'
+IDENTIFIED BY '94DD3F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2997'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2997'@'%';
+GRANT Select ON world_x.* TO 'u2997'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H68" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd2997 DEFAULT character set utf8mb4; 
+CREATE USER 'u2997'@'%';
+ALTER USER 'u2997'@'%'
+IDENTIFIED BY '94DD3F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u2997'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u2997'@'%';
+GRANT Select ON world_x.* TO 'u2997'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K68" s="29"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -10617,6 +13017,42 @@
       <c r="E69" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="F69" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3009 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G69" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3009'@'%';
+ALTER USER 'u3009'@'%'
+IDENTIFIED BY 'C0C526' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3009'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3009'@'%';
+GRANT Select ON world_x.* TO 'u3009'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H69" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3009 DEFAULT character set utf8mb4; 
+CREATE USER 'u3009'@'%';
+ALTER USER 'u3009'@'%'
+IDENTIFIED BY 'C0C526' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3009'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3009'@'%';
+GRANT Select ON world_x.* TO 'u3009'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K69" s="29"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -10635,6 +13071,42 @@
       <c r="E70" s="10" t="s">
         <v>190</v>
       </c>
+      <c r="F70" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3175 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G70" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3175'@'%';
+ALTER USER 'u3175'@'%'
+IDENTIFIED BY 'C61BDA' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3175'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3175'@'%';
+GRANT Select ON world_x.* TO 'u3175'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H70" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3175 DEFAULT character set utf8mb4; 
+CREATE USER 'u3175'@'%';
+ALTER USER 'u3175'@'%'
+IDENTIFIED BY 'C61BDA' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3175'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3175'@'%';
+GRANT Select ON world_x.* TO 'u3175'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K70" s="29"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -10653,6 +13125,42 @@
       <c r="E71" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="F71" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3198 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G71" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3198'@'%';
+ALTER USER 'u3198'@'%'
+IDENTIFIED BY '8EC38F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3198'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3198'@'%';
+GRANT Select ON world_x.* TO 'u3198'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H71" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3198 DEFAULT character set utf8mb4; 
+CREATE USER 'u3198'@'%';
+ALTER USER 'u3198'@'%'
+IDENTIFIED BY '8EC38F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3198'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3198'@'%';
+GRANT Select ON world_x.* TO 'u3198'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K71" s="29"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -10671,6 +13179,42 @@
       <c r="E72" s="10" t="s">
         <v>138</v>
       </c>
+      <c r="F72" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3200 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G72" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3200'@'%';
+ALTER USER 'u3200'@'%'
+IDENTIFIED BY '2B5E71' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3200'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3200'@'%';
+GRANT Select ON world_x.* TO 'u3200'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H72" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3200 DEFAULT character set utf8mb4; 
+CREATE USER 'u3200'@'%';
+ALTER USER 'u3200'@'%'
+IDENTIFIED BY '2B5E71' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3200'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3200'@'%';
+GRANT Select ON world_x.* TO 'u3200'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -10689,6 +13233,42 @@
       <c r="E73" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="F73" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3246 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G73" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3246'@'%';
+ALTER USER 'u3246'@'%'
+IDENTIFIED BY 'CCDB2F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3246'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3246'@'%';
+GRANT Select ON world_x.* TO 'u3246'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H73" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3246 DEFAULT character set utf8mb4; 
+CREATE USER 'u3246'@'%';
+ALTER USER 'u3246'@'%'
+IDENTIFIED BY 'CCDB2F' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3246'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3246'@'%';
+GRANT Select ON world_x.* TO 'u3246'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K73" s="29"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -10707,6 +13287,42 @@
       <c r="E74" s="10" t="s">
         <v>199</v>
       </c>
+      <c r="F74" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3373 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G74" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3373'@'%';
+ALTER USER 'u3373'@'%'
+IDENTIFIED BY '184077' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3373'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3373'@'%';
+GRANT Select ON world_x.* TO 'u3373'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H74" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3373 DEFAULT character set utf8mb4; 
+CREATE USER 'u3373'@'%';
+ALTER USER 'u3373'@'%'
+IDENTIFIED BY '184077' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3373'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3373'@'%';
+GRANT Select ON world_x.* TO 'u3373'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K74" s="29"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -10725,6 +13341,42 @@
       <c r="E75" s="10" t="s">
         <v>204</v>
       </c>
+      <c r="F75" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3379 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G75" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3379'@'%';
+ALTER USER 'u3379'@'%'
+IDENTIFIED BY '2381A5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3379'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3379'@'%';
+GRANT Select ON world_x.* TO 'u3379'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H75" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3379 DEFAULT character set utf8mb4; 
+CREATE USER 'u3379'@'%';
+ALTER USER 'u3379'@'%'
+IDENTIFIED BY '2381A5' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3379'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3379'@'%';
+GRANT Select ON world_x.* TO 'u3379'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K75" s="29"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -10743,6 +13395,42 @@
       <c r="E76" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="F76" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3534 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G76" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3534'@'%';
+ALTER USER 'u3534'@'%'
+IDENTIFIED BY '29AB82' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3534'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3534'@'%';
+GRANT Select ON world_x.* TO 'u3534'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H76" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3534 DEFAULT character set utf8mb4; 
+CREATE USER 'u3534'@'%';
+ALTER USER 'u3534'@'%'
+IDENTIFIED BY '29AB82' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3534'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3534'@'%';
+GRANT Select ON world_x.* TO 'u3534'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K76" s="29"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -10761,6 +13449,42 @@
       <c r="E77" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="F77" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3542 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G77" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3542'@'%';
+ALTER USER 'u3542'@'%'
+IDENTIFIED BY '9F7E59' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3542'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3542'@'%';
+GRANT Select ON world_x.* TO 'u3542'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H77" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3542 DEFAULT character set utf8mb4; 
+CREATE USER 'u3542'@'%';
+ALTER USER 'u3542'@'%'
+IDENTIFIED BY '9F7E59' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3542'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3542'@'%';
+GRANT Select ON world_x.* TO 'u3542'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K77" s="29"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -10779,6 +13503,42 @@
       <c r="E78" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="F78" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3543 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G78" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3543'@'%';
+ALTER USER 'u3543'@'%'
+IDENTIFIED BY 'E373AE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3543'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3543'@'%';
+GRANT Select ON world_x.* TO 'u3543'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H78" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3543 DEFAULT character set utf8mb4; 
+CREATE USER 'u3543'@'%';
+ALTER USER 'u3543'@'%'
+IDENTIFIED BY 'E373AE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3543'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3543'@'%';
+GRANT Select ON world_x.* TO 'u3543'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K78" s="29"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -10797,6 +13557,42 @@
       <c r="E79" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="F79" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3598 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G79" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3598'@'%';
+ALTER USER 'u3598'@'%'
+IDENTIFIED BY '9685A7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3598'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3598'@'%';
+GRANT Select ON world_x.* TO 'u3598'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H79" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3598 DEFAULT character set utf8mb4; 
+CREATE USER 'u3598'@'%';
+ALTER USER 'u3598'@'%'
+IDENTIFIED BY '9685A7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3598'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3598'@'%';
+GRANT Select ON world_x.* TO 'u3598'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K79" s="29"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -10815,6 +13611,42 @@
       <c r="E80" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="F80" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3671 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G80" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3671'@'%';
+ALTER USER 'u3671'@'%'
+IDENTIFIED BY '26CA33' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3671'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3671'@'%';
+GRANT Select ON world_x.* TO 'u3671'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H80" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3671 DEFAULT character set utf8mb4; 
+CREATE USER 'u3671'@'%';
+ALTER USER 'u3671'@'%'
+IDENTIFIED BY '26CA33' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3671'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3671'@'%';
+GRANT Select ON world_x.* TO 'u3671'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K80" s="29"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -10833,6 +13665,42 @@
       <c r="E81" s="10" t="s">
         <v>170</v>
       </c>
+      <c r="F81" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3839 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G81" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3839'@'%';
+ALTER USER 'u3839'@'%'
+IDENTIFIED BY '2CA505' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3839'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3839'@'%';
+GRANT Select ON world_x.* TO 'u3839'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H81" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3839 DEFAULT character set utf8mb4; 
+CREATE USER 'u3839'@'%';
+ALTER USER 'u3839'@'%'
+IDENTIFIED BY '2CA505' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3839'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3839'@'%';
+GRANT Select ON world_x.* TO 'u3839'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K81" s="29"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -10851,6 +13719,42 @@
       <c r="E82" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="F82" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3847 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G82" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3847'@'%';
+ALTER USER 'u3847'@'%'
+IDENTIFIED BY '9E6332' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3847'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3847'@'%';
+GRANT Select ON world_x.* TO 'u3847'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H82" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3847 DEFAULT character set utf8mb4; 
+CREATE USER 'u3847'@'%';
+ALTER USER 'u3847'@'%'
+IDENTIFIED BY '9E6332' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3847'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3847'@'%';
+GRANT Select ON world_x.* TO 'u3847'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K82" s="29"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -10869,6 +13773,42 @@
       <c r="E83" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="F83" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd3861 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G83" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u3861'@'%';
+ALTER USER 'u3861'@'%'
+IDENTIFIED BY '43923C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3861'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3861'@'%';
+GRANT Select ON world_x.* TO 'u3861'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H83" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd3861 DEFAULT character set utf8mb4; 
+CREATE USER 'u3861'@'%';
+ALTER USER 'u3861'@'%'
+IDENTIFIED BY '43923C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u3861'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u3861'@'%';
+GRANT Select ON world_x.* TO 'u3861'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K83" s="29"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -10887,6 +13827,42 @@
       <c r="E84" s="10" t="s">
         <v>161</v>
       </c>
+      <c r="F84" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4054 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G84" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4054'@'%';
+ALTER USER 'u4054'@'%'
+IDENTIFIED BY '7A5834' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4054'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4054'@'%';
+GRANT Select ON world_x.* TO 'u4054'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H84" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4054 DEFAULT character set utf8mb4; 
+CREATE USER 'u4054'@'%';
+ALTER USER 'u4054'@'%'
+IDENTIFIED BY '7A5834' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4054'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4054'@'%';
+GRANT Select ON world_x.* TO 'u4054'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K84" s="29"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -10905,6 +13881,42 @@
       <c r="E85" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="F85" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4055 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G85" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4055'@'%';
+ALTER USER 'u4055'@'%'
+IDENTIFIED BY 'DD3BCD' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4055'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4055'@'%';
+GRANT Select ON world_x.* TO 'u4055'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H85" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4055 DEFAULT character set utf8mb4; 
+CREATE USER 'u4055'@'%';
+ALTER USER 'u4055'@'%'
+IDENTIFIED BY 'DD3BCD' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4055'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4055'@'%';
+GRANT Select ON world_x.* TO 'u4055'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K85" s="29"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -10923,6 +13935,42 @@
       <c r="E86" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="F86" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4056 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G86" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4056'@'%';
+ALTER USER 'u4056'@'%'
+IDENTIFIED BY '42D99C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4056'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4056'@'%';
+GRANT Select ON world_x.* TO 'u4056'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H86" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4056 DEFAULT character set utf8mb4; 
+CREATE USER 'u4056'@'%';
+ALTER USER 'u4056'@'%'
+IDENTIFIED BY '42D99C' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4056'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4056'@'%';
+GRANT Select ON world_x.* TO 'u4056'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K86" s="29"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -10941,6 +13989,42 @@
       <c r="E87" s="10" t="s">
         <v>182</v>
       </c>
+      <c r="F87" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4057 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G87" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4057'@'%';
+ALTER USER 'u4057'@'%'
+IDENTIFIED BY 'A5FB60' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4057'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4057'@'%';
+GRANT Select ON world_x.* TO 'u4057'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H87" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4057 DEFAULT character set utf8mb4; 
+CREATE USER 'u4057'@'%';
+ALTER USER 'u4057'@'%'
+IDENTIFIED BY 'A5FB60' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4057'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4057'@'%';
+GRANT Select ON world_x.* TO 'u4057'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K87" s="29"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -10959,6 +14043,42 @@
       <c r="E88" s="10" t="s">
         <v>173</v>
       </c>
+      <c r="F88" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4079 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G88" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4079'@'%';
+ALTER USER 'u4079'@'%'
+IDENTIFIED BY 'B6C22B' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4079'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4079'@'%';
+GRANT Select ON world_x.* TO 'u4079'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H88" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4079 DEFAULT character set utf8mb4; 
+CREATE USER 'u4079'@'%';
+ALTER USER 'u4079'@'%'
+IDENTIFIED BY 'B6C22B' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4079'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4079'@'%';
+GRANT Select ON world_x.* TO 'u4079'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K88" s="29"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -10977,6 +14097,42 @@
       <c r="E89" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="F89" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4082 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G89" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4082'@'%';
+ALTER USER 'u4082'@'%'
+IDENTIFIED BY 'EFD14A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4082'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4082'@'%';
+GRANT Select ON world_x.* TO 'u4082'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H89" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4082 DEFAULT character set utf8mb4; 
+CREATE USER 'u4082'@'%';
+ALTER USER 'u4082'@'%'
+IDENTIFIED BY 'EFD14A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4082'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4082'@'%';
+GRANT Select ON world_x.* TO 'u4082'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K89" s="29"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -10995,6 +14151,42 @@
       <c r="E90" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="F90" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4104 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G90" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4104'@'%';
+ALTER USER 'u4104'@'%'
+IDENTIFIED BY '8408F4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4104'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4104'@'%';
+GRANT Select ON world_x.* TO 'u4104'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H90" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4104 DEFAULT character set utf8mb4; 
+CREATE USER 'u4104'@'%';
+ALTER USER 'u4104'@'%'
+IDENTIFIED BY '8408F4' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4104'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4104'@'%';
+GRANT Select ON world_x.* TO 'u4104'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K90" s="29"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -11013,6 +14205,42 @@
       <c r="E91" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="F91" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4297 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G91" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4297'@'%';
+ALTER USER 'u4297'@'%'
+IDENTIFIED BY 'CD5076' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4297'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4297'@'%';
+GRANT Select ON world_x.* TO 'u4297'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H91" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4297 DEFAULT character set utf8mb4; 
+CREATE USER 'u4297'@'%';
+ALTER USER 'u4297'@'%'
+IDENTIFIED BY 'CD5076' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4297'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4297'@'%';
+GRANT Select ON world_x.* TO 'u4297'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K91" s="29"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -11031,6 +14259,42 @@
       <c r="E92" s="10" t="s">
         <v>136</v>
       </c>
+      <c r="F92" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4298 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G92" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4298'@'%';
+ALTER USER 'u4298'@'%'
+IDENTIFIED BY 'CA4DAE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4298'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4298'@'%';
+GRANT Select ON world_x.* TO 'u4298'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H92" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4298 DEFAULT character set utf8mb4; 
+CREATE USER 'u4298'@'%';
+ALTER USER 'u4298'@'%'
+IDENTIFIED BY 'CA4DAE' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4298'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4298'@'%';
+GRANT Select ON world_x.* TO 'u4298'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K92" s="29"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -11049,6 +14313,42 @@
       <c r="E93" s="10" t="s">
         <v>137</v>
       </c>
+      <c r="F93" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4299 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G93" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4299'@'%';
+ALTER USER 'u4299'@'%'
+IDENTIFIED BY '333F2A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4299'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4299'@'%';
+GRANT Select ON world_x.* TO 'u4299'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H93" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4299 DEFAULT character set utf8mb4; 
+CREATE USER 'u4299'@'%';
+ALTER USER 'u4299'@'%'
+IDENTIFIED BY '333F2A' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4299'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4299'@'%';
+GRANT Select ON world_x.* TO 'u4299'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K93" s="29"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -11067,6 +14367,42 @@
       <c r="E94" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="F94" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4300 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G94" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4300'@'%';
+ALTER USER 'u4300'@'%'
+IDENTIFIED BY '43AB52' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4300'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4300'@'%';
+GRANT Select ON world_x.* TO 'u4300'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H94" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4300 DEFAULT character set utf8mb4; 
+CREATE USER 'u4300'@'%';
+ALTER USER 'u4300'@'%'
+IDENTIFIED BY '43AB52' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4300'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4300'@'%';
+GRANT Select ON world_x.* TO 'u4300'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K94" s="29"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -11085,6 +14421,42 @@
       <c r="E95" s="10" t="s">
         <v>200</v>
       </c>
+      <c r="F95" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4301 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G95" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4301'@'%';
+ALTER USER 'u4301'@'%'
+IDENTIFIED BY '722349' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4301'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4301'@'%';
+GRANT Select ON world_x.* TO 'u4301'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H95" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4301 DEFAULT character set utf8mb4; 
+CREATE USER 'u4301'@'%';
+ALTER USER 'u4301'@'%'
+IDENTIFIED BY '722349' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4301'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4301'@'%';
+GRANT Select ON world_x.* TO 'u4301'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K95" s="29"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -11103,6 +14475,42 @@
       <c r="E96" s="10" t="s">
         <v>203</v>
       </c>
+      <c r="F96" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4302 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G96" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4302'@'%';
+ALTER USER 'u4302'@'%'
+IDENTIFIED BY '0CD5C3' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4302'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4302'@'%';
+GRANT Select ON world_x.* TO 'u4302'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H96" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4302 DEFAULT character set utf8mb4; 
+CREATE USER 'u4302'@'%';
+ALTER USER 'u4302'@'%'
+IDENTIFIED BY '0CD5C3' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4302'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4302'@'%';
+GRANT Select ON world_x.* TO 'u4302'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K96" s="29"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -11121,6 +14529,42 @@
       <c r="E97" s="10" t="s">
         <v>180</v>
       </c>
+      <c r="F97" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4355 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G97" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4355'@'%';
+ALTER USER 'u4355'@'%'
+IDENTIFIED BY 'F057F0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4355'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4355'@'%';
+GRANT Select ON world_x.* TO 'u4355'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H97" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4355 DEFAULT character set utf8mb4; 
+CREATE USER 'u4355'@'%';
+ALTER USER 'u4355'@'%'
+IDENTIFIED BY 'F057F0' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4355'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4355'@'%';
+GRANT Select ON world_x.* TO 'u4355'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K97" s="29"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -11139,6 +14583,42 @@
       <c r="E98" s="10" t="s">
         <v>143</v>
       </c>
+      <c r="F98" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4356 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G98" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4356'@'%';
+ALTER USER 'u4356'@'%'
+IDENTIFIED BY '644C06' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4356'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4356'@'%';
+GRANT Select ON world_x.* TO 'u4356'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H98" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4356 DEFAULT character set utf8mb4; 
+CREATE USER 'u4356'@'%';
+ALTER USER 'u4356'@'%'
+IDENTIFIED BY '644C06' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4356'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4356'@'%';
+GRANT Select ON world_x.* TO 'u4356'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
       <c r="K98" s="29"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -11156,6 +14636,42 @@
       </c>
       <c r="E99" s="10" t="s">
         <v>127</v>
+      </c>
+      <c r="F99" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">create database bd4357 DEFAULT character set utf8mb4; 
+</v>
+      </c>
+      <c r="G99" s="26" t="str">
+        <f t="shared" si="4"/>
+        <v>CREATE USER 'u4357'@'%';
+ALTER USER 'u4357'@'%'
+IDENTIFIED BY 'B812B7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4357'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4357'@'%';
+GRANT Select ON world_x.* TO 'u4357'@'%';
+FLUSH PRIVILEGES;</v>
+      </c>
+      <c r="H99" s="31" t="str">
+        <f t="shared" si="5"/>
+        <v>create database bd4357 DEFAULT character set utf8mb4; 
+CREATE USER 'u4357'@'%';
+ALTER USER 'u4357'@'%'
+IDENTIFIED BY 'B812B7' 
+WITH
+	MAX_USER_CONNECTIONS 1
+	MAX_QUERIES_PER_HOUR 180
+	MAX_UPDATES_PER_HOUR 180
+	MAX_CONNECTIONS_PER_HOUR 50;
+GRANT ALL PRIVILEGES ON bd623.* TO 'u4357'@'%' ;	
+GRANT SELECT ON bdprueba.* TO 'u4357'@'%';
+GRANT Select ON world_x.* TO 'u4357'@'%';
+FLUSH PRIVILEGES;</v>
       </c>
       <c r="K99" s="29"/>
     </row>
